--- a/data/trans_camb/P59A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P59A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,46</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-3,46; 16,95</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 14,06</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 24,86</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 15,16</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,39; 18,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 11,76</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>47,72%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>26,73%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>141,7%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>61,7%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,06%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-20,8; 171,14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-33,05; 143,43</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29,25; 353,35</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-13,58; 209,57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,99; 198,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,77; 125,24</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,24</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 11,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,56; 5,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 15,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 10,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; 4,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 16,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 8,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,74; 3,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 13,27</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,29%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,3; 154,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,4; 69,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 194,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,1; 150,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,19; 63,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,92; 234,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,0; 106,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,98; 42,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,18; 156,48</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,32; 4,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,87; 9,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,9; 4,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,72; 8,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,69; 6,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 10,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,77; 3,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,64; 5,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,78; 5,83</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,33%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,99; 44,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,9; 92,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,45; 40,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,16; 165,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,71; 131,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,02; 171,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,95; 43,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,7; 56,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,0; 63,14</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,49</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 14,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,42; 30,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 22,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 14,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,71; 21,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; 10,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 11,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,56; 22,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 13,45</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,78%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,38%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,57%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; 131,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,39; 285,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 205,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 145,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,92; 238,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,82; 108,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,97; 104,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,96; 197,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 109,73</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,88</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,79</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,38; 6,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,06; 4,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,45; 2,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,23; 11,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,11; 2,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,52; 4,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,16; 5,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,2; 0,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; 1,29</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,83%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,71%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,56%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,99%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,64%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,88%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,11; 64,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,81; 41,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,56; 26,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,1; 133,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,13; 53,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,83; 56,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,32; 51,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,09; 12,01</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,98; 12,47</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,05</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,93</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,22</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,81; 5,36</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,39; -0,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,15; 3,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,73; -0,16</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,22; 0,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,64; 9,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,72; 0,02</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,75; -2,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,34; 4,16</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,71%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,52%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,31%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,93%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,01%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,35%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,75%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,1; 56,13</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,0; -1,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,07; 27,13</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,5; 5,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,78; 17,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,39; 131,79</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,62; 9,8</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,53; -17,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,46; 36,98</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,77</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,47; 10,01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 10,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 9,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,11; 15,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 7,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 11,92</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 10,47</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 7,62</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 8,8</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,38%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,84%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,58%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,72%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,57; 99,48</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,34; 91,04</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,56; 84,1</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,36; 252,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,92; 129,84</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,51; 190,85</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,85; 110,94</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,46; 82,54</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 89,72</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,12</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 6,6</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 10,62</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 7,34</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 8,21</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 10,9</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,66; 0,11</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 5,99</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,86; 9,31</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 2,2</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,03%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,96%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,43%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,94%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,12%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,4%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,85; 83,46</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 132,64</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,67; 96,32</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,27; 152,83</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,68; 195,57</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,97; 6,52</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,09; 78,84</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,99; 126,03</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,43; 31,63</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 4,45</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 6,57</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 5,46</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 6,53</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 6,26</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 5,15</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 4,62</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,93; 5,64</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 4,42</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,59%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,32%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,1; 36,54</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,22; 54,06</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 44,22</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,89; 71,14</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,48; 68,26</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,82; 58,54</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,21; 41,56</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,01; 51,18</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,67; 40,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P59A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>5,16</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,82; 16,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 14,06</t>
+          <t>-7,27; 12,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 22,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 15,16</t>
+          <t>-1,11; 16,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,65; 17,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 11,76</t>
+          <t>-1,73; 11,6</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>61,7%</t>
+          <t>67,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>39,72%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,12; 155,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 143,43</t>
+          <t>-37,57; 129,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,03; 307,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 209,57</t>
+          <t>-9,85; 228,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,64; 178,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 125,24</t>
+          <t>-11,09; 120,81</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,54</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>8,2</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 15,78</t>
+          <t>-1,13; 15,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 16,09</t>
+          <t>3,36; 16,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 13,27</t>
+          <t>2,59; 13,33</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>60,27%</t>
+          <t>57,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>99,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>77,29%</t>
+          <t>76,99%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 194,49</t>
+          <t>-10,89; 193,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,92; 234,75</t>
+          <t>22,17; 240,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,18; 156,48</t>
+          <t>15,42; 158,7</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 4,32</t>
+          <t>-12,97; 4,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 10,23</t>
+          <t>-2,8; 10,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 5,83</t>
+          <t>-4,76; 5,87</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-24,16%</t>
+          <t>-24,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,24%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,45; 40,74</t>
+          <t>-60,68; 40,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 171,52</t>
+          <t>-23,97; 172,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 63,14</t>
+          <t>-31,4; 63,48</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,23</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>3,76</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 14,36</t>
+          <t>-2,11; 17,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 22,59</t>
+          <t>-0,55; 22,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 14,43</t>
+          <t>-3,93; 12,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 10,3</t>
+          <t>-10,52; 6,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 11,96</t>
+          <t>-0,52; 12,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 13,45</t>
+          <t>-4,89; 10,85</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73,18%</t>
+          <t>69,77%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>48,92%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>-4,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>26,33%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 131,93</t>
+          <t>-12,34; 180,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 205,01</t>
+          <t>-4,63; 201,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 145,74</t>
+          <t>-23,91; 132,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 108,78</t>
+          <t>-59,97; 59,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,97; 104,33</t>
+          <t>-3,7; 107,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,68; 109,73</t>
+          <t>-28,41; 85,78</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-7,24</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-5,74</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 2,48</t>
+          <t>-16,49; 2,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 4,46</t>
+          <t>-14,35; 4,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 1,29</t>
+          <t>-12,51; 1,2</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-43,71%</t>
+          <t>-43,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-28,99%</t>
+          <t>-27,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-36,88%</t>
+          <t>-36,54%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-76,56; 26,55</t>
+          <t>-76,45; 26,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-64,83; 56,52</t>
+          <t>-64,43; 57,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-61,98; 12,47</t>
+          <t>-61,65; 13,26</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,16</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-2,13</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 3,11</t>
+          <t>-14,04; 3,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 9,34</t>
+          <t>-6,83; 9,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 4,16</t>
+          <t>-8,38; 3,97</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-30,31%</t>
+          <t>-29,91%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-13,75%</t>
+          <t>-14,32%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-61,07; 27,13</t>
+          <t>-60,86; 27,7</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-38,39; 131,79</t>
+          <t>-39,17; 127,44</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-44,46; 36,98</t>
+          <t>-45,14; 35,17</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>4,61</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 9,11</t>
+          <t>-4,98; 8,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,29; 11,92</t>
+          <t>1,39; 12,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,51; 8,8</t>
+          <t>0,34; 8,84</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>74,84%</t>
+          <t>76,14%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>40,33%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 84,1</t>
+          <t>-28,71; 80,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>9,51; 190,85</t>
+          <t>10,35; 192,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1,03; 89,72</t>
+          <t>0,98; 91,47</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,1</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 7,34</t>
+          <t>-3,71; 7,36</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 0,11</t>
+          <t>-7,73; -0,06</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,2</t>
+          <t>-4,25; 2,25</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-44,94%</t>
+          <t>-45,92%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-12,4%</t>
+          <t>-12,12%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 96,32</t>
+          <t>-29,09; 97,27</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-72,97; 6,52</t>
+          <t>-72,66; 4,1</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-40,43; 31,63</t>
+          <t>-40,05; 32,02</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,14 +2385,14 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
           <t>2,86</t>
         </is>
       </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
           <t>3,8</t>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>2,52</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,46</t>
+          <t>-0,44; 5,36</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,15</t>
+          <t>0,28; 5,33</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,42</t>
+          <t>0,71; 4,5</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>21,19%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 44,22</t>
+          <t>-2,94; 43,25</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>4,82; 58,54</t>
+          <t>2,39; 57,76</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>5,67; 40,25</t>
+          <t>5,57; 41,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P59A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 16,23</t>
+          <t>-4,27; 16,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 16,95</t>
+          <t>-3,66; 16,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 12,95</t>
+          <t>-7,67; 12,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 22,14</t>
+          <t>1,3; 22,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 24,86</t>
+          <t>5,91; 25,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 16,34</t>
+          <t>-1,23; 17,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 17,08</t>
+          <t>1,82; 17,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 18,72</t>
+          <t>4,7; 18,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 11,6</t>
+          <t>-1,52; 11,87</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 155,61</t>
+          <t>-23,66; 163,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 171,14</t>
+          <t>-19,46; 169,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,57; 129,45</t>
+          <t>-36,74; 119,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 307,05</t>
+          <t>0,57; 333,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,25; 353,35</t>
+          <t>27,96; 397,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 228,25</t>
+          <t>-17,41; 246,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,64; 178,29</t>
+          <t>10,92; 186,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,99; 198,37</t>
+          <t>26,09; 189,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 120,81</t>
+          <t>-9,38; 125,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 11,77</t>
+          <t>-3,91; 11,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 5,66</t>
+          <t>-7,61; 5,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 15,67</t>
+          <t>-0,92; 14,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 10,43</t>
+          <t>-2,64; 10,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 4,13</t>
+          <t>-7,61; 4,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 16,45</t>
+          <t>3,3; 16,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 8,83</t>
+          <t>-0,94; 8,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 3,19</t>
+          <t>-5,36; 3,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 13,33</t>
+          <t>2,69; 13,5</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 154,99</t>
+          <t>-26,59; 153,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,4; 69,67</t>
+          <t>-50,96; 82,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 193,48</t>
+          <t>-9,65; 183,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 150,1</t>
+          <t>-22,77; 147,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,19; 63,98</t>
+          <t>-59,76; 67,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,17; 240,1</t>
+          <t>21,93; 245,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 106,01</t>
+          <t>-7,94; 104,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,98; 42,5</t>
+          <t>-41,54; 42,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,42; 158,7</t>
+          <t>19,22; 169,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 4,12</t>
+          <t>-13,59; 4,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 9,49</t>
+          <t>-10,93; 8,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 4,18</t>
+          <t>-12,61; 4,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 8,45</t>
+          <t>-6,23; 7,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 6,95</t>
+          <t>-6,9; 6,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 10,41</t>
+          <t>-2,3; 10,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 3,76</t>
+          <t>-7,63; 3,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 5,12</t>
+          <t>-6,29; 4,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 5,87</t>
+          <t>-5,3; 5,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-63,99; 44,49</t>
+          <t>-64,96; 53,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,9; 92,79</t>
+          <t>-51,29; 86,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,68; 40,82</t>
+          <t>-61,52; 41,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 165,82</t>
+          <t>-54,54; 126,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,71; 131,99</t>
+          <t>-54,84; 120,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 172,74</t>
+          <t>-18,59; 185,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,95; 43,73</t>
+          <t>-49,47; 41,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,7; 56,6</t>
+          <t>-42,07; 54,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-31,4; 63,48</t>
+          <t>-33,27; 68,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 17,26</t>
+          <t>-2,41; 16,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,42; 30,08</t>
+          <t>9,28; 29,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 22,27</t>
+          <t>0,65; 23,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 12,97</t>
+          <t>-3,76; 13,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,71; 21,49</t>
+          <t>4,44; 22,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 6,73</t>
+          <t>-11,56; 7,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 12,1</t>
+          <t>-0,87; 11,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,56; 22,93</t>
+          <t>10,29; 23,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 10,85</t>
+          <t>-5,59; 10,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 180,5</t>
+          <t>-14,37; 139,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>49,39; 285,76</t>
+          <t>40,69; 265,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 201,6</t>
+          <t>2,19; 196,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,91; 132,58</t>
+          <t>-24,72; 132,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,92; 238,33</t>
+          <t>20,33; 231,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,97; 59,51</t>
+          <t>-61,26; 64,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 107,96</t>
+          <t>-5,49; 98,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>54,96; 197,56</t>
+          <t>56,32; 208,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 85,78</t>
+          <t>-30,87; 88,8</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 6,5</t>
+          <t>-14,65; 6,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 4,21</t>
+          <t>-17,31; 3,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 2,46</t>
+          <t>-18,18; 1,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 11,85</t>
+          <t>-9,51; 12,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 2,76</t>
+          <t>-17,16; 3,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 4,59</t>
+          <t>-15,48; 4,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 5,88</t>
+          <t>-9,03; 6,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 0,89</t>
+          <t>-13,47; 0,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 1,2</t>
+          <t>-12,18; 0,81</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-72,11; 64,57</t>
+          <t>-72,57; 62,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-75,81; 41,98</t>
+          <t>-75,12; 38,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-76,45; 26,44</t>
+          <t>-78,98; 28,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-52,1; 133,8</t>
+          <t>-49,22; 132,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-82,13; 53,75</t>
+          <t>-82,27; 55,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-64,43; 57,52</t>
+          <t>-67,47; 54,58</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-46,32; 51,77</t>
+          <t>-46,47; 58,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-68,09; 12,01</t>
+          <t>-68,56; 8,78</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-61,65; 13,26</t>
+          <t>-61,34; 11,23</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 5,36</t>
+          <t>-15,22; 5,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-18,39; -0,73</t>
+          <t>-19,52; -0,97</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 3,11</t>
+          <t>-14,84; 3,03</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,73; -0,16</t>
+          <t>-14,68; 0,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 0,39</t>
+          <t>-14,76; 0,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 9,15</t>
+          <t>-8,04; 8,08</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 0,02</t>
+          <t>-12,64; 0,03</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,75; -2,03</t>
+          <t>-13,56; -2,02</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 3,97</t>
+          <t>-8,11; 4,15</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-71,1; 56,13</t>
+          <t>-70,74; 58,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-81,0; -1,37</t>
+          <t>-84,71; -3,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-60,86; 27,7</t>
+          <t>-63,75; 28,66</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-84,5; 5,67</t>
+          <t>-84,65; 23,8</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-83,78; 17,85</t>
+          <t>-85,11; 15,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 127,44</t>
+          <t>-47,25; 97,32</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-69,62; 9,8</t>
+          <t>-69,43; 2,88</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-76,53; -17,01</t>
+          <t>-75,23; -17,28</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-45,14; 35,17</t>
+          <t>-44,22; 39,05</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 10,01</t>
+          <t>-3,88; 9,73</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 10,27</t>
+          <t>-2,44; 10,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 8,77</t>
+          <t>-5,24; 8,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,11; 15,52</t>
+          <t>3,28; 14,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 7,98</t>
+          <t>-1,31; 8,66</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,39; 12,08</t>
+          <t>1,86; 12,13</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,28; 10,47</t>
+          <t>1,93; 10,52</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 7,62</t>
+          <t>-0,04; 7,72</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,34; 8,84</t>
+          <t>0,01; 8,78</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 99,48</t>
+          <t>-21,48; 93,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 91,04</t>
+          <t>-14,71; 93,99</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 80,4</t>
+          <t>-29,91; 78,98</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>21,36; 252,83</t>
+          <t>22,14; 225,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 129,84</t>
+          <t>-13,66; 157,3</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>10,35; 192,42</t>
+          <t>12,65; 189,56</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>6,85; 110,94</t>
+          <t>14,54; 115,39</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 82,54</t>
+          <t>-0,62; 83,12</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,98; 91,47</t>
+          <t>-0,88; 94,72</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 6,6</t>
+          <t>-3,98; 7,04</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 10,62</t>
+          <t>-0,42; 10,35</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 7,36</t>
+          <t>-3,11; 7,74</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 8,21</t>
+          <t>-1,26; 8,26</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,36; 10,9</t>
+          <t>1,26; 10,67</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -0,06</t>
+          <t>-7,92; -0,1</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 5,99</t>
+          <t>-1,16; 6,59</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,86; 9,31</t>
+          <t>2,38; 9,37</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 2,25</t>
+          <t>-4,43; 1,98</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-28,85; 83,46</t>
+          <t>-30,37; 91,62</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 132,64</t>
+          <t>-3,37; 129,69</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 97,27</t>
+          <t>-25,09; 95,69</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 152,83</t>
+          <t>-14,32; 149,33</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>8,68; 195,57</t>
+          <t>9,69; 200,95</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-72,66; 4,1</t>
+          <t>-72,6; 3,56</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 78,84</t>
+          <t>-10,88; 89,03</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>15,99; 126,03</t>
+          <t>19,33; 124,71</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 32,02</t>
+          <t>-41,95; 28,7</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,45</t>
+          <t>-1,32; 4,43</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,95; 6,57</t>
+          <t>0,94; 6,69</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,36</t>
+          <t>-0,63; 5,04</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,53</t>
+          <t>1,52; 6,58</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,26</t>
+          <t>1,44; 6,24</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,28; 5,33</t>
+          <t>0,22; 5,29</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,62</t>
+          <t>0,96; 4,84</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,64</t>
+          <t>1,86; 5,52</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,5</t>
+          <t>0,65; 4,58</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 36,54</t>
+          <t>-9,03; 35,88</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>6,22; 54,06</t>
+          <t>6,01; 54,02</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 43,25</t>
+          <t>-4,18; 42,66</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>9,89; 71,14</t>
+          <t>12,17; 73,14</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>12,48; 68,26</t>
+          <t>12,29; 69,16</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>2,39; 57,76</t>
+          <t>2,15; 58,72</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>6,21; 41,56</t>
+          <t>7,45; 43,53</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>15,01; 51,18</t>
+          <t>14,71; 50,55</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>5,57; 41,19</t>
+          <t>4,71; 41,67</t>
         </is>
       </c>
     </row>
